--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="315" windowWidth="15150" windowHeight="7320"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="15150" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Task MileStones" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Version" sheetId="5" r:id="rId1"/>
+    <sheet name="Task MileStones" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task2</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -89,11 +90,45 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制作时间 </t>
+  </si>
+  <si>
+    <t>版本修订</t>
+  </si>
+  <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>修订描述</t>
+  </si>
+  <si>
+    <t>赵翔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建初始版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务一进度安排</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -233,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -267,11 +302,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -310,9 +529,73 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -611,11 +894,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="26">
+        <v>41903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
+      <c r="A6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" thickTop="1">
+      <c r="A7" s="31">
+        <v>41902</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="36">
+        <v>41903</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CG27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1"/>
@@ -990,8 +1607,8 @@
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2495,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Task2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Task3</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,35 +58,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任务1： 起草文档</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-内容：
-1. 技术方案文档
-2. 里程碑文档</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -121,6 +88,61 @@
     <t>任务一进度安排</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>任务2：分词器使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务1： 起草文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+内容：
+1. 技术方案文档
+2. 里程碑文档</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">任务2： 分词器使用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容：
+1. 学习标注词性的表示
+2. 学习接口调用
+3. 封装接口
+4. 学习userDefine Dict使用</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +191,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -490,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -526,17 +557,49 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,44 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,6 +617,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,284 +944,308 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="26">
+        <v>11</v>
+      </c>
+      <c r="B3" s="25">
         <v>41903</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
+      <c r="A6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" thickTop="1">
+      <c r="A7" s="43">
+        <v>41902</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="37">
+        <v>41903</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" thickTop="1">
-      <c r="A7" s="31">
-        <v>41902</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="36">
-        <v>41903</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="36"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="36"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="46"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:L17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="F21:L21"/>
     <mergeCell ref="A22:B22"/>
@@ -1195,30 +1256,6 @@
     <mergeCell ref="F19:L19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="F20:L20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:L8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1232,7 +1269,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20:J27"/>
+      <selection pane="topRight" activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1"/>
@@ -1605,7 +1642,7 @@
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1694,12 +1731,12 @@
     </row>
     <row r="3" spans="1:85" ht="18" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1783,7 +1820,7 @@
     </row>
     <row r="4" spans="1:85" ht="18" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1872,7 +1909,7 @@
     </row>
     <row r="5" spans="1:85" ht="18" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1961,7 +1998,7 @@
     </row>
     <row r="6" spans="1:85" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2050,7 +2087,7 @@
     </row>
     <row r="7" spans="1:85" ht="18" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2139,7 +2176,7 @@
     </row>
     <row r="8" spans="1:85" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2228,7 +2265,7 @@
     </row>
     <row r="9" spans="1:85" ht="18" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2317,7 +2354,7 @@
     </row>
     <row r="10" spans="1:85" ht="18" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2406,7 +2443,7 @@
     </row>
     <row r="11" spans="1:85" ht="18" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2495,7 +2532,7 @@
     </row>
     <row r="12" spans="1:85" ht="18" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3013,98 +3050,165 @@
       <c r="CG17" s="21"/>
     </row>
     <row r="20" spans="2:85" ht="18" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="L20" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
     </row>
     <row r="21" spans="2:85" ht="18" customHeight="1">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
     </row>
     <row r="22" spans="2:85" ht="18" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
     </row>
     <row r="23" spans="2:85" ht="18" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
     </row>
     <row r="24" spans="2:85" ht="18" customHeight="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
     </row>
     <row r="25" spans="2:85" ht="18" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
     </row>
     <row r="26" spans="2:85" ht="18" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
     </row>
     <row r="27" spans="2:85" ht="18" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B20:J27"/>
+    <mergeCell ref="L20:S27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Task3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Task4</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -122,6 +118,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>任务3：整理词库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">任务2： 分词器使用
 </t>
@@ -143,6 +143,47 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务3： 整理词库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容：
+1. 整理电动汽车领域词库，
+分别以sqlite数据库，
+excel表格形式输出
+2. 整理为user Dict</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +247,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -521,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -561,39 +616,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,18 +640,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="62"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -944,15 +1010,15 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="25">
         <v>41903</v>
@@ -960,48 +1026,48 @@
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
+      <c r="A6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="26" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
-      <c r="A6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="26" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
+      <c r="F6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" thickTop="1">
-      <c r="A7" s="43">
+      <c r="A7" s="32">
         <v>41902</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="27">
         <v>0.1</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
+      <c r="F7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="37">
@@ -1013,15 +1079,15 @@
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="F8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="37"/>
@@ -1029,13 +1095,13 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="37"/>
@@ -1043,13 +1109,13 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="37"/>
@@ -1057,13 +1123,13 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="37"/>
@@ -1071,13 +1137,13 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="37"/>
@@ -1085,13 +1151,13 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="37"/>
@@ -1099,13 +1165,13 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="37"/>
@@ -1113,13 +1179,13 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="37"/>
@@ -1133,7 +1199,7 @@
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="37"/>
@@ -1141,111 +1207,87 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:L17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="F21:L21"/>
     <mergeCell ref="A22:B22"/>
@@ -1256,6 +1298,30 @@
     <mergeCell ref="F19:L19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="F20:L20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:L8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,7 +1335,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W28" sqref="W28"/>
+      <selection pane="topRight" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1"/>
@@ -1278,7 +1344,8 @@
     <col min="2" max="6" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="3.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="3.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="56" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="27" width="3.375" style="1" bestFit="1" customWidth="1"/>
@@ -1363,7 +1430,7 @@
         <f t="shared" si="4"/>
         <v>41918</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="54">
         <f t="shared" si="4"/>
         <v>41919</v>
       </c>
@@ -1642,7 +1709,7 @@
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1659,7 +1726,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="55"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1731,7 +1798,7 @@
     </row>
     <row r="3" spans="1:85" ht="18" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1748,7 +1815,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="55"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -1820,13 +1887,13 @@
     </row>
     <row r="4" spans="1:85" ht="18" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1837,7 +1904,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="55"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1909,7 +1976,7 @@
     </row>
     <row r="5" spans="1:85" ht="18" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1926,7 +1993,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="55"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1998,7 +2065,7 @@
     </row>
     <row r="6" spans="1:85" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2015,7 +2082,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="55"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -2087,7 +2154,7 @@
     </row>
     <row r="7" spans="1:85" ht="18" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2104,7 +2171,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="55"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -2176,7 +2243,7 @@
     </row>
     <row r="8" spans="1:85" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2193,7 +2260,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="55"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -2265,7 +2332,7 @@
     </row>
     <row r="9" spans="1:85" ht="18" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2282,7 +2349,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -2354,7 +2421,7 @@
     </row>
     <row r="10" spans="1:85" ht="18" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2371,7 +2438,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="55"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -2443,7 +2510,7 @@
     </row>
     <row r="11" spans="1:85" ht="18" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2460,7 +2527,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="55"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2532,7 +2599,7 @@
     </row>
     <row r="12" spans="1:85" ht="18" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2549,7 +2616,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="55"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -2635,7 +2702,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="55"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -2721,7 +2788,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="55"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -2807,7 +2874,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="55"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2893,7 +2960,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="55"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2979,7 +3046,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="55"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -3051,7 +3118,7 @@
     </row>
     <row r="20" spans="2:85" ht="18" customHeight="1">
       <c r="B20" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
@@ -3061,16 +3128,25 @@
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="U20" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
     </row>
     <row r="21" spans="2:85" ht="18" customHeight="1">
       <c r="B21" s="49"/>
@@ -3082,14 +3158,21 @@
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
     </row>
     <row r="22" spans="2:85" ht="18" customHeight="1">
       <c r="B22" s="49"/>
@@ -3101,14 +3184,21 @@
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
     </row>
     <row r="23" spans="2:85" ht="18" customHeight="1">
       <c r="B23" s="49"/>
@@ -3120,14 +3210,21 @@
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
     </row>
     <row r="24" spans="2:85" ht="18" customHeight="1">
       <c r="B24" s="49"/>
@@ -3139,14 +3236,21 @@
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
     </row>
     <row r="25" spans="2:85" ht="18" customHeight="1">
       <c r="B25" s="49"/>
@@ -3158,14 +3262,21 @@
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
     </row>
     <row r="26" spans="2:85" ht="18" customHeight="1">
       <c r="B26" s="49"/>
@@ -3177,14 +3288,21 @@
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
     </row>
     <row r="27" spans="2:85" ht="18" customHeight="1">
       <c r="B27" s="49"/>
@@ -3196,19 +3314,27 @@
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B20:J27"/>
     <mergeCell ref="L20:S27"/>
+    <mergeCell ref="U20:AA27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Task4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Task5</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -184,6 +180,54 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务4：分词索引工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+内容：
+1. 完成分词工具
+2. 实现功能：
+词频统计
+生成PAT TREE索引
+快速查找左右词
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务4：分词索引工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -277,12 +321,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,8 +391,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -572,11 +616,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -593,29 +663,66 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="62"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="62"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,65 +747,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="62"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,7 +798,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1010,284 +1095,308 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="25">
+        <v>9</v>
+      </c>
+      <c r="B3" s="24">
         <v>41903</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" thickBot="1">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
+      <c r="A6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickTop="1" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" thickTop="1">
+      <c r="A7" s="45">
+        <v>41902</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" thickTop="1">
-      <c r="A7" s="32">
-        <v>41902</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="34" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="39">
+        <v>41903</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="37">
-        <v>41903</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="41"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:L17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="F21:L21"/>
     <mergeCell ref="A22:B22"/>
@@ -1298,30 +1407,6 @@
     <mergeCell ref="F19:L19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="F20:L20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:L8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1335,38 +1420,38 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN16" sqref="AN16"/>
+      <selection pane="topRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="6" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="3.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.375" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="27" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="3.375" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.375" style="23" customWidth="1"/>
-    <col min="36" max="36" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.375" style="22" customWidth="1"/>
+    <col min="36" max="36" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="37" max="41" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="44" max="48" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="51" max="55" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="58" max="62" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="65" max="69" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="72" max="76" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="79" max="83" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="3.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="3.375" style="22" bestFit="1" customWidth="1"/>
     <col min="86" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
@@ -1430,7 +1515,7 @@
         <f t="shared" si="4"/>
         <v>41918</v>
       </c>
-      <c r="Q1" s="54">
+      <c r="Q1" s="28">
         <f t="shared" si="4"/>
         <v>41919</v>
       </c>
@@ -1502,11 +1587,11 @@
         <f t="shared" si="4"/>
         <v>41936</v>
       </c>
-      <c r="AI1" s="20">
+      <c r="AI1" s="19">
         <f t="shared" si="4"/>
         <v>41937</v>
       </c>
-      <c r="AJ1" s="20">
+      <c r="AJ1" s="19">
         <f t="shared" si="4"/>
         <v>41938</v>
       </c>
@@ -1530,11 +1615,11 @@
         <f t="shared" si="4"/>
         <v>41943</v>
       </c>
-      <c r="AP1" s="20">
+      <c r="AP1" s="19">
         <f t="shared" si="4"/>
         <v>41944</v>
       </c>
-      <c r="AQ1" s="20">
+      <c r="AQ1" s="19">
         <f t="shared" si="4"/>
         <v>41945</v>
       </c>
@@ -1558,11 +1643,11 @@
         <f t="shared" si="5"/>
         <v>41950</v>
       </c>
-      <c r="AW1" s="20">
+      <c r="AW1" s="19">
         <f t="shared" si="5"/>
         <v>41951</v>
       </c>
-      <c r="AX1" s="20">
+      <c r="AX1" s="19">
         <f t="shared" si="5"/>
         <v>41952</v>
       </c>
@@ -1586,11 +1671,11 @@
         <f t="shared" si="5"/>
         <v>41957</v>
       </c>
-      <c r="BD1" s="20">
+      <c r="BD1" s="19">
         <f t="shared" si="5"/>
         <v>41958</v>
       </c>
-      <c r="BE1" s="20">
+      <c r="BE1" s="19">
         <f t="shared" si="5"/>
         <v>41959</v>
       </c>
@@ -1614,11 +1699,11 @@
         <f t="shared" si="5"/>
         <v>41964</v>
       </c>
-      <c r="BK1" s="20">
+      <c r="BK1" s="19">
         <f t="shared" si="5"/>
         <v>41965</v>
       </c>
-      <c r="BL1" s="20">
+      <c r="BL1" s="19">
         <f t="shared" si="5"/>
         <v>41966</v>
       </c>
@@ -1642,11 +1727,11 @@
         <f t="shared" si="5"/>
         <v>41971</v>
       </c>
-      <c r="BR1" s="20">
+      <c r="BR1" s="19">
         <f t="shared" si="5"/>
         <v>41972</v>
       </c>
-      <c r="BS1" s="20">
+      <c r="BS1" s="19">
         <f t="shared" si="5"/>
         <v>41973</v>
       </c>
@@ -1670,11 +1755,11 @@
         <f t="shared" si="5"/>
         <v>41978</v>
       </c>
-      <c r="BY1" s="20">
+      <c r="BY1" s="19">
         <f t="shared" si="5"/>
         <v>41979</v>
       </c>
-      <c r="BZ1" s="20">
+      <c r="BZ1" s="19">
         <f t="shared" si="5"/>
         <v>41980</v>
       </c>
@@ -1698,21 +1783,21 @@
         <f t="shared" si="5"/>
         <v>41985</v>
       </c>
-      <c r="CF1" s="20">
+      <c r="CF1" s="19">
         <f t="shared" si="5"/>
         <v>41986</v>
       </c>
-      <c r="CG1" s="20">
+      <c r="CG1" s="19">
         <f t="shared" si="5"/>
         <v>41987</v>
       </c>
     </row>
     <row r="2" spans="1:85" ht="18" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1726,7 +1811,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="55"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1744,61 +1829,61 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
       <c r="BH2" s="4"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4"/>
       <c r="BQ2" s="4"/>
-      <c r="BR2" s="21"/>
-      <c r="BS2" s="21"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
       <c r="BT2" s="4"/>
       <c r="BU2" s="4"/>
       <c r="BV2" s="4"/>
       <c r="BW2" s="4"/>
       <c r="BX2" s="4"/>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
+      <c r="BY2" s="20"/>
+      <c r="BZ2" s="20"/>
       <c r="CA2" s="4"/>
       <c r="CB2" s="4"/>
       <c r="CC2" s="4"/>
       <c r="CD2" s="4"/>
       <c r="CE2" s="4"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
+      <c r="CF2" s="20"/>
+      <c r="CG2" s="20"/>
     </row>
     <row r="3" spans="1:85" ht="18" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1815,7 +1900,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="55"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -1833,61 +1918,61 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
       <c r="BF3" s="4"/>
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
       <c r="BI3" s="4"/>
       <c r="BJ3" s="4"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="21"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
       <c r="BM3" s="4"/>
       <c r="BN3" s="4"/>
       <c r="BO3" s="4"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
-      <c r="BR3" s="21"/>
-      <c r="BS3" s="21"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="4"/>
       <c r="BV3" s="4"/>
       <c r="BW3" s="4"/>
       <c r="BX3" s="4"/>
-      <c r="BY3" s="21"/>
-      <c r="BZ3" s="21"/>
+      <c r="BY3" s="20"/>
+      <c r="BZ3" s="20"/>
       <c r="CA3" s="4"/>
       <c r="CB3" s="4"/>
       <c r="CC3" s="4"/>
       <c r="CD3" s="4"/>
       <c r="CE3" s="4"/>
-      <c r="CF3" s="21"/>
-      <c r="CG3" s="21"/>
+      <c r="CF3" s="20"/>
+      <c r="CG3" s="20"/>
     </row>
     <row r="4" spans="1:85" ht="18" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1904,7 +1989,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="55"/>
+      <c r="Q4" s="29"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -1922,84 +2007,84 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
-      <c r="AP4" s="21"/>
-      <c r="AQ4" s="21"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="21"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
       <c r="BI4" s="4"/>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="21"/>
-      <c r="BL4" s="21"/>
+      <c r="BK4" s="20"/>
+      <c r="BL4" s="20"/>
       <c r="BM4" s="4"/>
       <c r="BN4" s="4"/>
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
-      <c r="BR4" s="21"/>
-      <c r="BS4" s="21"/>
+      <c r="BR4" s="20"/>
+      <c r="BS4" s="20"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="4"/>
       <c r="BV4" s="4"/>
       <c r="BW4" s="4"/>
       <c r="BX4" s="4"/>
-      <c r="BY4" s="21"/>
-      <c r="BZ4" s="21"/>
+      <c r="BY4" s="20"/>
+      <c r="BZ4" s="20"/>
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
       <c r="CC4" s="4"/>
       <c r="CD4" s="4"/>
       <c r="CE4" s="4"/>
-      <c r="CF4" s="21"/>
-      <c r="CG4" s="21"/>
+      <c r="CF4" s="20"/>
+      <c r="CG4" s="20"/>
     </row>
     <row r="5" spans="1:85" ht="18" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>0</v>
+      <c r="A5" s="58" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="4"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="61"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -2011,61 +2096,61 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="21"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="21"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="21"/>
+      <c r="BK5" s="20"/>
+      <c r="BL5" s="20"/>
       <c r="BM5" s="4"/>
       <c r="BN5" s="4"/>
       <c r="BO5" s="4"/>
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
-      <c r="BR5" s="21"/>
-      <c r="BS5" s="21"/>
+      <c r="BR5" s="20"/>
+      <c r="BS5" s="20"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="4"/>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
-      <c r="BY5" s="21"/>
-      <c r="BZ5" s="21"/>
+      <c r="BY5" s="20"/>
+      <c r="BZ5" s="20"/>
       <c r="CA5" s="4"/>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
-      <c r="CF5" s="21"/>
-      <c r="CG5" s="21"/>
+      <c r="CF5" s="20"/>
+      <c r="CG5" s="20"/>
     </row>
     <row r="6" spans="1:85" ht="18" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2082,7 +2167,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="55"/>
+      <c r="Q6" s="29"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -2100,61 +2185,61 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4"/>
       <c r="BJ6" s="4"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
       <c r="BM6" s="4"/>
       <c r="BN6" s="4"/>
       <c r="BO6" s="4"/>
       <c r="BP6" s="4"/>
       <c r="BQ6" s="4"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
+      <c r="BR6" s="20"/>
+      <c r="BS6" s="20"/>
       <c r="BT6" s="4"/>
       <c r="BU6" s="4"/>
       <c r="BV6" s="4"/>
       <c r="BW6" s="4"/>
       <c r="BX6" s="4"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
+      <c r="BY6" s="20"/>
+      <c r="BZ6" s="20"/>
       <c r="CA6" s="4"/>
       <c r="CB6" s="4"/>
       <c r="CC6" s="4"/>
       <c r="CD6" s="4"/>
       <c r="CE6" s="4"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
+      <c r="CF6" s="20"/>
+      <c r="CG6" s="20"/>
     </row>
     <row r="7" spans="1:85" ht="18" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2171,7 +2256,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="55"/>
+      <c r="Q7" s="29"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -2189,61 +2274,61 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4"/>
       <c r="BH7" s="4"/>
       <c r="BI7" s="4"/>
       <c r="BJ7" s="4"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
       <c r="BM7" s="4"/>
       <c r="BN7" s="4"/>
       <c r="BO7" s="4"/>
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="4"/>
       <c r="BV7" s="4"/>
       <c r="BW7" s="4"/>
       <c r="BX7" s="4"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20"/>
       <c r="CA7" s="4"/>
       <c r="CB7" s="4"/>
       <c r="CC7" s="4"/>
       <c r="CD7" s="4"/>
       <c r="CE7" s="4"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
     </row>
     <row r="8" spans="1:85" ht="18" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2260,7 +2345,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="55"/>
+      <c r="Q8" s="29"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -2278,61 +2363,61 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8"/>
       <c r="AT8" s="8"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
       <c r="AY8" s="8"/>
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8"/>
       <c r="BC8" s="8"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
       <c r="BF8" s="8"/>
       <c r="BG8" s="8"/>
       <c r="BH8" s="8"/>
       <c r="BI8" s="8"/>
       <c r="BJ8" s="8"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="21"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="20"/>
       <c r="BM8" s="8"/>
       <c r="BN8" s="8"/>
       <c r="BO8" s="8"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="8"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
+      <c r="BR8" s="20"/>
+      <c r="BS8" s="20"/>
       <c r="BT8" s="8"/>
       <c r="BU8" s="8"/>
       <c r="BV8" s="8"/>
       <c r="BW8" s="8"/>
       <c r="BX8" s="8"/>
-      <c r="BY8" s="21"/>
-      <c r="BZ8" s="21"/>
+      <c r="BY8" s="20"/>
+      <c r="BZ8" s="20"/>
       <c r="CA8" s="8"/>
       <c r="CB8" s="8"/>
       <c r="CC8" s="8"/>
       <c r="CD8" s="8"/>
       <c r="CE8" s="8"/>
-      <c r="CF8" s="21"/>
-      <c r="CG8" s="21"/>
+      <c r="CF8" s="20"/>
+      <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" ht="18" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2349,7 +2434,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="55"/>
+      <c r="Q9" s="29"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
@@ -2367,61 +2452,61 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="9"/>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9"/>
       <c r="BI9" s="9"/>
       <c r="BJ9" s="9"/>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
       <c r="BP9" s="9"/>
       <c r="BQ9" s="9"/>
-      <c r="BR9" s="22"/>
-      <c r="BS9" s="22"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
       <c r="BT9" s="9"/>
       <c r="BU9" s="9"/>
       <c r="BV9" s="9"/>
       <c r="BW9" s="9"/>
       <c r="BX9" s="9"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21"/>
       <c r="CA9" s="9"/>
       <c r="CB9" s="9"/>
       <c r="CC9" s="9"/>
       <c r="CD9" s="9"/>
       <c r="CE9" s="9"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
     </row>
     <row r="10" spans="1:85" ht="18" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2438,7 +2523,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="55"/>
+      <c r="Q10" s="29"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -2456,61 +2541,61 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
       <c r="BC10" s="4"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
       <c r="BF10" s="4"/>
       <c r="BG10" s="4"/>
       <c r="BH10" s="4"/>
       <c r="BI10" s="4"/>
       <c r="BJ10" s="4"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
       <c r="BM10" s="4"/>
       <c r="BN10" s="4"/>
       <c r="BO10" s="4"/>
       <c r="BP10" s="4"/>
       <c r="BQ10" s="4"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
       <c r="BT10" s="4"/>
       <c r="BU10" s="4"/>
       <c r="BV10" s="4"/>
       <c r="BW10" s="4"/>
       <c r="BX10" s="4"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
       <c r="CA10" s="4"/>
       <c r="CB10" s="4"/>
       <c r="CC10" s="4"/>
       <c r="CD10" s="4"/>
       <c r="CE10" s="4"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" ht="18" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2527,7 +2612,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="55"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2545,61 +2630,61 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
       <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
       <c r="BI11" s="4"/>
       <c r="BJ11" s="4"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
       <c r="BM11" s="4"/>
       <c r="BN11" s="4"/>
       <c r="BO11" s="4"/>
       <c r="BP11" s="4"/>
       <c r="BQ11" s="4"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="4"/>
       <c r="BV11" s="4"/>
       <c r="BW11" s="4"/>
       <c r="BX11" s="4"/>
-      <c r="BY11" s="21"/>
-      <c r="BZ11" s="21"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
       <c r="CA11" s="4"/>
       <c r="CB11" s="4"/>
       <c r="CC11" s="4"/>
       <c r="CD11" s="4"/>
       <c r="CE11" s="4"/>
-      <c r="CF11" s="21"/>
-      <c r="CG11" s="21"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
     </row>
     <row r="12" spans="1:85" ht="18" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>7</v>
+      <c r="A12" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2616,7 +2701,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="55"/>
+      <c r="Q12" s="29"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -2634,57 +2719,57 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
       <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
       <c r="BH12" s="4"/>
       <c r="BI12" s="4"/>
       <c r="BJ12" s="4"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="21"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
       <c r="BM12" s="4"/>
       <c r="BN12" s="4"/>
       <c r="BO12" s="4"/>
       <c r="BP12" s="4"/>
       <c r="BQ12" s="4"/>
-      <c r="BR12" s="21"/>
-      <c r="BS12" s="21"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
       <c r="BT12" s="4"/>
       <c r="BU12" s="4"/>
       <c r="BV12" s="4"/>
       <c r="BW12" s="4"/>
       <c r="BX12" s="4"/>
-      <c r="BY12" s="21"/>
-      <c r="BZ12" s="21"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
       <c r="CA12" s="4"/>
       <c r="CB12" s="4"/>
       <c r="CC12" s="4"/>
       <c r="CD12" s="4"/>
       <c r="CE12" s="4"/>
-      <c r="CF12" s="21"/>
-      <c r="CG12" s="21"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
     </row>
     <row r="13" spans="1:85" ht="18" customHeight="1">
       <c r="B13" s="4"/>
@@ -2702,7 +2787,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="55"/>
+      <c r="Q13" s="29"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -2720,57 +2805,57 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
       <c r="BF13" s="4"/>
       <c r="BG13" s="4"/>
       <c r="BH13" s="4"/>
       <c r="BI13" s="4"/>
       <c r="BJ13" s="4"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
       <c r="BM13" s="4"/>
       <c r="BN13" s="4"/>
       <c r="BO13" s="4"/>
       <c r="BP13" s="4"/>
       <c r="BQ13" s="4"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
       <c r="BT13" s="4"/>
       <c r="BU13" s="4"/>
       <c r="BV13" s="4"/>
       <c r="BW13" s="4"/>
       <c r="BX13" s="4"/>
-      <c r="BY13" s="21"/>
-      <c r="BZ13" s="21"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
       <c r="CA13" s="4"/>
       <c r="CB13" s="4"/>
       <c r="CC13" s="4"/>
       <c r="CD13" s="4"/>
       <c r="CE13" s="4"/>
-      <c r="CF13" s="21"/>
-      <c r="CG13" s="21"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
     </row>
     <row r="14" spans="1:85" ht="18" customHeight="1">
       <c r="B14" s="4"/>
@@ -2788,7 +2873,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="55"/>
+      <c r="Q14" s="29"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -2806,57 +2891,57 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
       <c r="BB14" s="4"/>
       <c r="BC14" s="4"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
       <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
       <c r="BH14" s="4"/>
       <c r="BI14" s="4"/>
       <c r="BJ14" s="4"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
       <c r="BM14" s="4"/>
       <c r="BN14" s="4"/>
       <c r="BO14" s="4"/>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="4"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="4"/>
       <c r="BV14" s="4"/>
       <c r="BW14" s="4"/>
       <c r="BX14" s="4"/>
-      <c r="BY14" s="21"/>
-      <c r="BZ14" s="21"/>
+      <c r="BY14" s="20"/>
+      <c r="BZ14" s="20"/>
       <c r="CA14" s="4"/>
       <c r="CB14" s="4"/>
       <c r="CC14" s="4"/>
       <c r="CD14" s="4"/>
       <c r="CE14" s="4"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
     </row>
     <row r="15" spans="1:85" ht="18" customHeight="1">
       <c r="B15" s="4"/>
@@ -2874,7 +2959,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="55"/>
+      <c r="Q15" s="29"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2892,57 +2977,57 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4"/>
       <c r="BC15" s="4"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
       <c r="BH15" s="4"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="4"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4"/>
       <c r="BO15" s="4"/>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="4"/>
       <c r="BV15" s="4"/>
       <c r="BW15" s="4"/>
       <c r="BX15" s="4"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="21"/>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="20"/>
       <c r="CA15" s="4"/>
       <c r="CB15" s="4"/>
       <c r="CC15" s="4"/>
       <c r="CD15" s="4"/>
       <c r="CE15" s="4"/>
-      <c r="CF15" s="21"/>
-      <c r="CG15" s="21"/>
+      <c r="CF15" s="20"/>
+      <c r="CG15" s="20"/>
     </row>
     <row r="16" spans="1:85" ht="18" customHeight="1">
       <c r="B16" s="4"/>
@@ -2960,7 +3045,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="55"/>
+      <c r="Q16" s="29"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2978,57 +3063,57 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
       <c r="BF16" s="4"/>
       <c r="BG16" s="4"/>
       <c r="BH16" s="4"/>
       <c r="BI16" s="4"/>
       <c r="BJ16" s="4"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="21"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4"/>
       <c r="BO16" s="4"/>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
-      <c r="BR16" s="21"/>
-      <c r="BS16" s="21"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="4"/>
       <c r="BV16" s="4"/>
       <c r="BW16" s="4"/>
       <c r="BX16" s="4"/>
-      <c r="BY16" s="21"/>
-      <c r="BZ16" s="21"/>
+      <c r="BY16" s="20"/>
+      <c r="BZ16" s="20"/>
       <c r="CA16" s="4"/>
       <c r="CB16" s="4"/>
       <c r="CC16" s="4"/>
       <c r="CD16" s="4"/>
       <c r="CE16" s="4"/>
-      <c r="CF16" s="21"/>
-      <c r="CG16" s="21"/>
+      <c r="CF16" s="20"/>
+      <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="2:85" ht="18" customHeight="1">
       <c r="B17" s="4"/>
@@ -3046,7 +3131,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="55"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -3064,277 +3149,337 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
       <c r="BH17" s="4"/>
       <c r="BI17" s="4"/>
       <c r="BJ17" s="4"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
       <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
       <c r="BO17" s="4"/>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
-      <c r="BR17" s="21"/>
-      <c r="BS17" s="21"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="4"/>
       <c r="BV17" s="4"/>
       <c r="BW17" s="4"/>
       <c r="BX17" s="4"/>
-      <c r="BY17" s="21"/>
-      <c r="BZ17" s="21"/>
+      <c r="BY17" s="20"/>
+      <c r="BZ17" s="20"/>
       <c r="CA17" s="4"/>
       <c r="CB17" s="4"/>
       <c r="CC17" s="4"/>
       <c r="CD17" s="4"/>
       <c r="CE17" s="4"/>
-      <c r="CF17" s="21"/>
-      <c r="CG17" s="21"/>
+      <c r="CF17" s="20"/>
+      <c r="CG17" s="20"/>
     </row>
     <row r="20" spans="2:85" ht="18" customHeight="1">
-      <c r="B20" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="L20" s="50" t="s">
+      <c r="B20" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="L20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="U20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="U20" s="53" t="s">
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AD20" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
     </row>
     <row r="21" spans="2:85" ht="18" customHeight="1">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
     </row>
     <row r="22" spans="2:85" ht="18" customHeight="1">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
     </row>
     <row r="23" spans="2:85" ht="18" customHeight="1">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
     </row>
     <row r="24" spans="2:85" ht="18" customHeight="1">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
     </row>
     <row r="25" spans="2:85" ht="18" customHeight="1">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
     </row>
     <row r="26" spans="2:85" ht="18" customHeight="1">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
     </row>
     <row r="27" spans="2:85" ht="18" customHeight="1">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B20:J27"/>
     <mergeCell ref="L20:S27"/>
     <mergeCell ref="U20:AA27"/>
+    <mergeCell ref="AD20:AJ27"/>
+    <mergeCell ref="G5:W5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
